--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H2">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I2">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J2">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N2">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O2">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P2">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q2">
-        <v>899.1028054705125</v>
+        <v>874.1668133046165</v>
       </c>
       <c r="R2">
-        <v>3596.41122188205</v>
+        <v>3496.667253218466</v>
       </c>
       <c r="S2">
-        <v>0.006613652796203215</v>
+        <v>0.004076652531723557</v>
       </c>
       <c r="T2">
-        <v>0.003308672347654007</v>
+        <v>0.001999403650612059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H3">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I3">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J3">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P3">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q3">
-        <v>748.0795273236505</v>
+        <v>614.2092646645782</v>
       </c>
       <c r="R3">
-        <v>4488.477163941903</v>
+        <v>3685.255587987469</v>
       </c>
       <c r="S3">
-        <v>0.005502750327953128</v>
+        <v>0.002864347760283127</v>
       </c>
       <c r="T3">
-        <v>0.004129366571056183</v>
+        <v>0.002107238962837701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H4">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I4">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J4">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N4">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O4">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P4">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q4">
-        <v>3041.146838781299</v>
+        <v>2825.418425949967</v>
       </c>
       <c r="R4">
-        <v>18246.88103268779</v>
+        <v>16952.5105556998</v>
       </c>
       <c r="S4">
-        <v>0.02237017743865793</v>
+        <v>0.01317625995865118</v>
       </c>
       <c r="T4">
-        <v>0.01678699875488447</v>
+        <v>0.009693490697722946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H5">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I5">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J5">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N5">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O5">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P5">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q5">
-        <v>526.4013613878608</v>
+        <v>517.415102687865</v>
       </c>
       <c r="R5">
-        <v>2105.605445551443</v>
+        <v>2069.66041075146</v>
       </c>
       <c r="S5">
-        <v>0.003872122091584536</v>
+        <v>0.002412950887886731</v>
       </c>
       <c r="T5">
-        <v>0.001937141801353839</v>
+        <v>0.001183437336502314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H6">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I6">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J6">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N6">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O6">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P6">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q6">
-        <v>858.8279762043245</v>
+        <v>4788.360282638934</v>
       </c>
       <c r="R6">
-        <v>5152.967857225947</v>
+        <v>28730.1616958336</v>
       </c>
       <c r="S6">
-        <v>0.006317397756654607</v>
+        <v>0.02233038451234631</v>
       </c>
       <c r="T6">
-        <v>0.004740693209335275</v>
+        <v>0.01642798299565151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H7">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I7">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J7">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N7">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O7">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P7">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q7">
-        <v>2594.639770128444</v>
+        <v>2336.980206094845</v>
       </c>
       <c r="R7">
-        <v>15567.83862077067</v>
+        <v>14021.88123656907</v>
       </c>
       <c r="S7">
-        <v>0.01908574466283638</v>
+        <v>0.01089844195497335</v>
       </c>
       <c r="T7">
-        <v>0.01432229908634551</v>
+        <v>0.008017749045763528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H8">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I8">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J8">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N8">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O8">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P8">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q8">
-        <v>10951.29882886217</v>
+        <v>12968.26864294442</v>
       </c>
       <c r="R8">
-        <v>65707.79297317301</v>
+        <v>77809.61185766652</v>
       </c>
       <c r="S8">
-        <v>0.08055595831853586</v>
+        <v>0.06047715881077292</v>
       </c>
       <c r="T8">
-        <v>0.06045069493525287</v>
+        <v>0.0444917433472489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H9">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I9">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J9">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P9">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q9">
-        <v>9111.797229003243</v>
+        <v>9111.797229003241</v>
       </c>
       <c r="R9">
-        <v>82006.17506102918</v>
+        <v>82006.17506102916</v>
       </c>
       <c r="S9">
-        <v>0.06702488620363936</v>
+        <v>0.04249261202418102</v>
       </c>
       <c r="T9">
-        <v>0.075445088734683</v>
+        <v>0.04689134936669627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H10">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I10">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J10">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N10">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O10">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P10">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q10">
-        <v>37041.93515058028</v>
+        <v>41915.09517266048</v>
       </c>
       <c r="R10">
-        <v>333377.4163552225</v>
+        <v>377235.8565539444</v>
       </c>
       <c r="S10">
-        <v>0.2724744005856047</v>
+        <v>0.1954698762895233</v>
       </c>
       <c r="T10">
-        <v>0.3067048150988773</v>
+        <v>0.2157044677446749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H11">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I11">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J11">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N11">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O11">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P11">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q11">
-        <v>6411.701284216932</v>
+        <v>7675.855396760198</v>
       </c>
       <c r="R11">
-        <v>38470.20770530159</v>
+        <v>46055.13238056119</v>
       </c>
       <c r="S11">
-        <v>0.04716342321342226</v>
+        <v>0.03579613737343092</v>
       </c>
       <c r="T11">
-        <v>0.03539231322285425</v>
+        <v>0.026334447387397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H12">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I12">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J12">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N12">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O12">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P12">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q12">
-        <v>10460.74125536576</v>
+        <v>71035.34652582198</v>
       </c>
       <c r="R12">
-        <v>94146.67129829183</v>
+        <v>639318.1187323978</v>
       </c>
       <c r="S12">
-        <v>0.07694749725277891</v>
+        <v>0.3312713555913059</v>
       </c>
       <c r="T12">
-        <v>0.08661425758351322</v>
+        <v>0.3655638034529695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H13">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I13">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J13">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N13">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O13">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P13">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q13">
-        <v>31603.36649273056</v>
+        <v>34669.11196424106</v>
       </c>
       <c r="R13">
-        <v>284430.298434575</v>
+        <v>312022.0076781696</v>
       </c>
       <c r="S13">
-        <v>0.232469181391001</v>
+        <v>0.1616784358666575</v>
       </c>
       <c r="T13">
-        <v>0.2616738201514598</v>
+        <v>0.1784150152259451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H14">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I14">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J14">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N14">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O14">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P14">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q14">
-        <v>13.6626176804</v>
+        <v>4.146756689215</v>
       </c>
       <c r="R14">
-        <v>81.9757060824</v>
+        <v>24.88054013529</v>
       </c>
       <c r="S14">
-        <v>0.0001004999751704105</v>
+        <v>1.933828406459896E-05</v>
       </c>
       <c r="T14">
-        <v>7.541705749441819E-05</v>
+        <v>1.422675913183055E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H15">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I15">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J15">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P15">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q15">
-        <v>11.36769289804267</v>
+        <v>2.913604518109444</v>
       </c>
       <c r="R15">
-        <v>102.309236082384</v>
+        <v>26.22244066298499</v>
       </c>
       <c r="S15">
-        <v>8.361888480836801E-05</v>
+        <v>1.358751333774676E-05</v>
       </c>
       <c r="T15">
-        <v>9.412375822758221E-05</v>
+        <v>1.4994061428428E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H16">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I16">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J16">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N16">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O16">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P16">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q16">
-        <v>46.21276489787201</v>
+        <v>13.40284552023667</v>
       </c>
       <c r="R16">
-        <v>415.914884080848</v>
+        <v>120.62560968213</v>
       </c>
       <c r="S16">
-        <v>0.0003399335203132305</v>
+        <v>6.250379594693313E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003826386892475213</v>
+        <v>6.897404496632197E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H17">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I17">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J17">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N17">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O17">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P17">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q17">
-        <v>7.999108114584001</v>
+        <v>2.45444519915</v>
       </c>
       <c r="R17">
-        <v>47.994648687504</v>
+        <v>14.7266711949</v>
       </c>
       <c r="S17">
-        <v>5.884012754410802E-05</v>
+        <v>1.144623667108358E-05</v>
       </c>
       <c r="T17">
-        <v>4.415473013250465E-05</v>
+        <v>8.420749821517792E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H18">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I18">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J18">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N18">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O18">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P18">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q18">
-        <v>13.05060802915733</v>
+        <v>22.71438898182611</v>
       </c>
       <c r="R18">
-        <v>117.455472262416</v>
+        <v>204.429500836435</v>
       </c>
       <c r="S18">
-        <v>9.599813253726886E-05</v>
+        <v>0.0001059279189509196</v>
       </c>
       <c r="T18">
-        <v>0.0001080581861136356</v>
+        <v>0.0001168933331843206</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H19">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I19">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J19">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N19">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O19">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P19">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q19">
-        <v>39.42771725539733</v>
+        <v>11.08585701801278</v>
       </c>
       <c r="R19">
-        <v>354.8494552985759</v>
+        <v>99.772713162115</v>
       </c>
       <c r="S19">
-        <v>0.0002900238225122748</v>
+        <v>5.169858474489915E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003264589358366181</v>
+        <v>5.705030318346364E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H20">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I20">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J20">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N20">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O20">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P20">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q20">
-        <v>1642.590286785175</v>
+        <v>1817.602856967799</v>
       </c>
       <c r="R20">
-        <v>6570.361147140699</v>
+        <v>7270.411427871198</v>
       </c>
       <c r="S20">
-        <v>0.01208262478674837</v>
+        <v>0.008476340185593062</v>
       </c>
       <c r="T20">
-        <v>0.006044684798383066</v>
+        <v>0.004157240623041087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H21">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I21">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J21">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P21">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q21">
-        <v>1366.68260609156</v>
+        <v>1277.088648572851</v>
       </c>
       <c r="R21">
-        <v>8200.09563654936</v>
+        <v>7662.531891437106</v>
       </c>
       <c r="S21">
-        <v>0.01005309313273651</v>
+        <v>0.005955667263046436</v>
       </c>
       <c r="T21">
-        <v>0.007544028757248433</v>
+        <v>0.004381456148728223</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H22">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I22">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J22">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N22">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O22">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P22">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q22">
-        <v>5555.93668229682</v>
+        <v>5874.723822702001</v>
       </c>
       <c r="R22">
-        <v>33335.62009378091</v>
+        <v>35248.34293621201</v>
       </c>
       <c r="S22">
-        <v>0.0408685591356499</v>
+        <v>0.02739661055589552</v>
       </c>
       <c r="T22">
-        <v>0.03066852970680936</v>
+        <v>0.02015509639352145</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H23">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I23">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J23">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N23">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O23">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P23">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q23">
-        <v>961.6939886131305</v>
+        <v>1075.830327313095</v>
       </c>
       <c r="R23">
-        <v>3846.775954452522</v>
+        <v>4303.32130925238</v>
       </c>
       <c r="S23">
-        <v>0.007074063275283205</v>
+        <v>0.005017104699921408</v>
       </c>
       <c r="T23">
-        <v>0.003539006093262279</v>
+        <v>0.002460650588801766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H24">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I24">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J24">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N24">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O24">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P24">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q24">
-        <v>1569.01133346409</v>
+        <v>9956.151614832417</v>
       </c>
       <c r="R24">
-        <v>9414.068000784537</v>
+        <v>59736.90968899451</v>
       </c>
       <c r="S24">
-        <v>0.01154139007208296</v>
+        <v>0.04643023513257846</v>
       </c>
       <c r="T24">
-        <v>0.00866087456395769</v>
+        <v>0.0341577241010059</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H25">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I25">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J25">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N25">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O25">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P25">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q25">
-        <v>4740.203298430569</v>
+        <v>4859.143397605752</v>
       </c>
       <c r="R25">
-        <v>28441.21979058341</v>
+        <v>29154.86038563451</v>
       </c>
       <c r="S25">
-        <v>0.03486815813329725</v>
+        <v>0.02266047959310317</v>
       </c>
       <c r="T25">
-        <v>0.02616571677957563</v>
+        <v>0.01667082683788915</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H26">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I26">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J26">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N26">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O26">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P26">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q26">
-        <v>561.5917328647166</v>
+        <v>9.680787654406002</v>
       </c>
       <c r="R26">
-        <v>3369.5503971883</v>
+        <v>58.08472592643601</v>
       </c>
       <c r="S26">
-        <v>0.004130976693417907</v>
+        <v>4.514608298983793E-05</v>
       </c>
       <c r="T26">
-        <v>0.003099962027526213</v>
+        <v>3.321300102411007E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H27">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I27">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J27">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P27">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q27">
-        <v>467.2605574291975</v>
+        <v>6.801939144897112</v>
       </c>
       <c r="R27">
-        <v>4205.345016862778</v>
+        <v>61.217452304074</v>
       </c>
       <c r="S27">
-        <v>0.003437092035965665</v>
+        <v>3.172065332799559E-05</v>
       </c>
       <c r="T27">
-        <v>0.003868887040775335</v>
+        <v>3.50043023125163E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H28">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I28">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J28">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N28">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O28">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P28">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q28">
-        <v>1899.541312401407</v>
+        <v>31.28953810665467</v>
       </c>
       <c r="R28">
-        <v>17095.87181161267</v>
+        <v>281.6058429598921</v>
       </c>
       <c r="S28">
-        <v>0.01397271439464896</v>
+        <v>0.000145917887521664</v>
       </c>
       <c r="T28">
-        <v>0.01572807858510669</v>
+        <v>0.0001610229712104998</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H29">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I29">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J29">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N29">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O29">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P29">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q29">
-        <v>328.797386600803</v>
+        <v>5.73001132286</v>
       </c>
       <c r="R29">
-        <v>1972.784319604818</v>
+        <v>34.38006793716</v>
       </c>
       <c r="S29">
-        <v>0.00241857965746057</v>
+        <v>2.672174785249138E-05</v>
       </c>
       <c r="T29">
-        <v>0.001814947324835135</v>
+        <v>1.965861443595404E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H30">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I30">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J30">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N30">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O30">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P30">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q30">
-        <v>536.4355315707023</v>
+        <v>53.02774985678379</v>
       </c>
       <c r="R30">
-        <v>4827.919784136322</v>
+        <v>477.2497487110541</v>
       </c>
       <c r="S30">
-        <v>0.003945931801979778</v>
+        <v>0.0002472934312022796</v>
       </c>
       <c r="T30">
-        <v>0.00444165132987883</v>
+        <v>0.0002728926777199842</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H31">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I31">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J31">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N31">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O31">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P31">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q31">
-        <v>1620.646978076782</v>
+        <v>25.88042554741845</v>
       </c>
       <c r="R31">
-        <v>14585.82280269104</v>
+        <v>232.923829926766</v>
       </c>
       <c r="S31">
-        <v>0.01192121340629865</v>
+        <v>0.0001206926420955327</v>
       </c>
       <c r="T31">
-        <v>0.01341885162670307</v>
+        <v>0.0001331864664678809</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H32">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I32">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J32">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N32">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O32">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P32">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q32">
-        <v>32.70711870075</v>
+        <v>3.714869060245</v>
       </c>
       <c r="R32">
-        <v>196.2427122045</v>
+        <v>22.28921436147</v>
       </c>
       <c r="S32">
-        <v>0.0002405882016325885</v>
+        <v>1.732418816291995E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001805418777888987</v>
+        <v>1.274503215099418E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H33">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I33">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J33">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>19.794779</v>
       </c>
       <c r="O33">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P33">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q33">
-        <v>27.21326832583</v>
+        <v>2.610150556039444</v>
       </c>
       <c r="R33">
-        <v>244.91941493247</v>
+        <v>23.491355004355</v>
       </c>
       <c r="S33">
-        <v>0.0002001763391926783</v>
+        <v>1.217236425646594E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002253240927122317</v>
+        <v>1.343241937313293E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H34">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I34">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J34">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N34">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O34">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P34">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q34">
-        <v>110.62934075751</v>
+        <v>12.00692972217667</v>
       </c>
       <c r="R34">
-        <v>995.6640668175901</v>
+        <v>108.06236749959</v>
       </c>
       <c r="S34">
-        <v>0.0008137712888796236</v>
+        <v>5.599398158928009E-05</v>
       </c>
       <c r="T34">
-        <v>0.0009160037499015831</v>
+        <v>6.17903496175085E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H35">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I35">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J35">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N35">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O35">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P35">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q35">
-        <v>19.149169267845</v>
+        <v>2.19881300345</v>
       </c>
       <c r="R35">
-        <v>114.89501560707</v>
+        <v>13.1928780207</v>
       </c>
       <c r="S35">
-        <v>0.0001408581489265582</v>
+        <v>1.0254103062338E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001057025844846104</v>
+        <v>7.543722798441275E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H36">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I36">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J36">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N36">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O36">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P36">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q36">
-        <v>31.24202081267</v>
+        <v>20.34866937585612</v>
       </c>
       <c r="R36">
-        <v>281.17818731403</v>
+        <v>183.138024382705</v>
       </c>
       <c r="S36">
-        <v>0.0002298111818243354</v>
+        <v>9.48954516068808E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002586819014101946</v>
+        <v>0.0001047188102269745</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.12431</v>
+        <v>0.3955816666666667</v>
       </c>
       <c r="H37">
-        <v>12.37293</v>
+        <v>1.186745</v>
       </c>
       <c r="I37">
-        <v>0.002319496972672878</v>
+        <v>0.0002369542294199201</v>
       </c>
       <c r="J37">
-        <v>0.002467768511615926</v>
+        <v>0.0002513388081040564</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N37">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O37">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P37">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q37">
-        <v>94.38652669186999</v>
+        <v>9.931257203882778</v>
       </c>
       <c r="R37">
-        <v>849.4787402268299</v>
+        <v>89.381314834945</v>
       </c>
       <c r="S37">
-        <v>0.0006942918122170938</v>
+        <v>4.631414074203534E-05</v>
       </c>
       <c r="T37">
-        <v>0.0007815143053184071</v>
+        <v>5.1108473937005E-05</v>
       </c>
     </row>
   </sheetData>
